--- a/stats/dic22/DAP.xlsx
+++ b/stats/dic22/DAP.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -370,22 +370,12 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>desvio.x</t>
+          <t>tratamiento</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>tratamiento</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
           <t>media.y</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>desvio.y</t>
         </is>
       </c>
     </row>
@@ -398,19 +388,13 @@
       <c r="B2">
         <v>1.533679245283019</v>
       </c>
-      <c r="C2">
-        <v>1.378633725382312</v>
-      </c>
-      <c r="D2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="E2">
+      <c r="D2">
         <v>0.691875</v>
-      </c>
-      <c r="F2">
-        <v>0.9624607456602773</v>
       </c>
     </row>
     <row r="3">
@@ -422,19 +406,13 @@
       <c r="B3">
         <v>1.533679245283019</v>
       </c>
-      <c r="C3">
-        <v>1.378633725382312</v>
-      </c>
-      <c r="D3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>T</t>
         </is>
       </c>
-      <c r="E3">
+      <c r="D3">
         <v>2.4765</v>
-      </c>
-      <c r="F3">
-        <v>1.145709056621376</v>
       </c>
     </row>
     <row r="4">
@@ -446,19 +424,13 @@
       <c r="B4">
         <v>2.230174418604651</v>
       </c>
-      <c r="C4">
-        <v>2.156924785615797</v>
-      </c>
-      <c r="D4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="E4">
+      <c r="D4">
         <v>0.5885567010309278</v>
-      </c>
-      <c r="F4">
-        <v>0.7365770915903305</v>
       </c>
     </row>
     <row r="5">
@@ -470,19 +442,13 @@
       <c r="B5">
         <v>2.230174418604651</v>
       </c>
-      <c r="C5">
-        <v>2.156924785615797</v>
-      </c>
-      <c r="D5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>T</t>
         </is>
       </c>
-      <c r="E5">
+      <c r="D5">
         <v>4.353333333333333</v>
-      </c>
-      <c r="F5">
-        <v>1.394834421378775</v>
       </c>
     </row>
     <row r="6">
@@ -494,19 +460,13 @@
       <c r="B6">
         <v>3.016</v>
       </c>
-      <c r="C6">
-        <v>2.145725770097328</v>
-      </c>
-      <c r="D6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="E6">
+      <c r="D6">
         <v>1.526666666666667</v>
-      </c>
-      <c r="F6">
-        <v>1.95242976364887</v>
       </c>
     </row>
     <row r="7">
@@ -518,19 +478,13 @@
       <c r="B7">
         <v>3.016</v>
       </c>
-      <c r="C7">
-        <v>2.145725770097328</v>
-      </c>
-      <c r="D7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>T</t>
         </is>
       </c>
-      <c r="E7">
+      <c r="D7">
         <v>4.133</v>
-      </c>
-      <c r="F7">
-        <v>1.5172612886981</v>
       </c>
     </row>
     <row r="8">
@@ -542,19 +496,13 @@
       <c r="B8">
         <v>2.215175879396985</v>
       </c>
-      <c r="C8">
-        <v>2.082097535102014</v>
-      </c>
-      <c r="D8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="E8">
+      <c r="D8">
         <v>1.195151515151515</v>
-      </c>
-      <c r="F8">
-        <v>1.732402109397711</v>
       </c>
     </row>
     <row r="9">
@@ -566,19 +514,13 @@
       <c r="B9">
         <v>2.215175879396985</v>
       </c>
-      <c r="C9">
-        <v>2.082097535102014</v>
-      </c>
-      <c r="D9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>T</t>
         </is>
       </c>
-      <c r="E9">
+      <c r="D9">
         <v>3.225</v>
-      </c>
-      <c r="F9">
-        <v>1.904957646868727</v>
       </c>
     </row>
     <row r="10">
@@ -590,19 +532,13 @@
       <c r="B10">
         <v>2.506488888888889</v>
       </c>
-      <c r="C10">
-        <v>1.792326807510459</v>
-      </c>
-      <c r="D10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="E10">
+      <c r="D10">
         <v>1.3636</v>
-      </c>
-      <c r="F10">
-        <v>1.798342401752067</v>
       </c>
     </row>
     <row r="11">
@@ -614,19 +550,13 @@
       <c r="B11">
         <v>2.506488888888889</v>
       </c>
-      <c r="C11">
-        <v>1.792326807510459</v>
-      </c>
-      <c r="D11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>T</t>
         </is>
       </c>
-      <c r="E11">
+      <c r="D11">
         <v>3.4208</v>
-      </c>
-      <c r="F11">
-        <v>1.151089666079423</v>
       </c>
     </row>
   </sheetData>
